--- a/www/data/eph_gba.xlsx
+++ b/www/data/eph_gba.xlsx
@@ -101,10 +101,10 @@
     <t xml:space="preserve">Asalariados públicos (s/planes)</t>
   </si>
   <si>
-    <t xml:space="preserve">Asalariados privados protegidos (s/ serv dom ni planes)</t>
+    <t xml:space="preserve">Asalariados privados protegidos (s/serv dom ni planes)</t>
   </si>
   <si>
-    <t xml:space="preserve">Asalariados privados precarios (s/ serv dom ni planes)</t>
+    <t xml:space="preserve">Asalariados privados precarios (s/serv dom ni planes)</t>
   </si>
   <si>
     <t xml:space="preserve">Serv dom (s/planes)</t>
@@ -662,7 +662,7 @@
         <v>63687</v>
       </c>
       <c r="O2" t="n">
-        <v>5122273</v>
+        <v>5123580</v>
       </c>
       <c r="P2" t="n">
         <v>0.481858773776101</v>
@@ -698,28 +698,28 @@
         <v>0.0110894616421325</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0359147198909547</v>
+        <v>0.0359055582229613</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.241668493655063</v>
+        <v>0.241606845213698</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.120184730489765</v>
+        <v>0.119471346207144</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.258177180326</v>
+        <v>0.25480015926364</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.278679601809587</v>
+        <v>0.212054852271263</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.0708026419027321</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0124333474611759</v>
+        <v>0.012430175775532</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0529419263674544</v>
+        <v>0.0529284211430289</v>
       </c>
     </row>
     <row r="3">
@@ -766,7 +766,7 @@
         <v>65678</v>
       </c>
       <c r="O3" t="n">
-        <v>5134528</v>
+        <v>5136430</v>
       </c>
       <c r="P3" t="n">
         <v>0.4754201128422</v>
@@ -802,28 +802,28 @@
         <v>0.0115020289405325</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0360938726987174</v>
+        <v>0.0360805072784015</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.228980346392112</v>
+        <v>0.22889555586273</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.110992480710983</v>
+        <v>0.110951380628179</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.280594438281377</v>
+        <v>0.276659859085007</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.276534279295</v>
+        <v>0.216085685972553</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.0645471660277664</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0127914386677802</v>
+        <v>0.0127867020479204</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0540131439540304</v>
+        <v>0.0539931430974432</v>
       </c>
     </row>
     <row r="4">
@@ -915,13 +915,13 @@
         <v>0.0971537948694813</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.296566878089353</v>
+        <v>0.291597693051894</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.283981193676368</v>
+        <v>0.223214426870231</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.0657359518435958</v>
       </c>
       <c r="AG4" t="n">
         <v>0.0177655980624536</v>
@@ -1019,13 +1019,13 @@
         <v>0.108258106839322</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.285175031414208</v>
+        <v>0.281800059961899</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.29350071286991</v>
+        <v>0.22957813326767</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.0672975510545493</v>
       </c>
       <c r="AG5" t="n">
         <v>0.0118252759140195</v>
@@ -1123,13 +1123,13 @@
         <v>0.114894171768974</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.281417399329316</v>
+        <v>0.279083705833092</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.279313503014983</v>
+        <v>0.220937101123281</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.0607100953879264</v>
       </c>
       <c r="AG6" t="n">
         <v>0.0104045829807199</v>
@@ -1227,13 +1227,13 @@
         <v>0.103899024772581</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.286909304453919</v>
+        <v>0.283572109202193</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.293764499350257</v>
+        <v>0.230353214557535</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.0667484800444471</v>
       </c>
       <c r="AG7" t="n">
         <v>0.011414100802841</v>
@@ -1331,13 +1331,13 @@
         <v>0.0996412778391069</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.304637037239648</v>
+        <v>0.300580585547521</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.29596205939613</v>
+        <v>0.227112753716038</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0729057573722191</v>
       </c>
       <c r="AG8" t="n">
         <v>0.0079605384434467</v>
@@ -1435,13 +1435,13 @@
         <v>0.108502928157461</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.292112073055963</v>
+        <v>0.289827198762496</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.290808064932965</v>
+        <v>0.223303654786121</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.0697892844403118</v>
       </c>
       <c r="AG9" t="n">
         <v>0.00813199945536609</v>
@@ -1539,13 +1539,13 @@
         <v>0.110637554344536</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.305478915244456</v>
+        <v>0.301859087921692</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.285843649415256</v>
+        <v>0.223197128063694</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.066266348674325</v>
       </c>
       <c r="AG10" t="n">
         <v>0.0097050740658975</v>
@@ -1643,13 +1643,13 @@
         <v>0.10260908379865</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.320461157368054</v>
+        <v>0.317686044945616</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.294285826907586</v>
+        <v>0.222938411008621</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.0741225283214028</v>
       </c>
       <c r="AG11" t="n">
         <v>0.0102730439079831</v>
@@ -1747,13 +1747,13 @@
         <v>0.104463575764963</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.322584571028927</v>
+        <v>0.317664622219901</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.291170971757905</v>
+        <v>0.219343636822677</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.0767472837442541</v>
       </c>
       <c r="AG12" t="n">
         <v>0.00652891680596183</v>
@@ -1851,13 +1851,13 @@
         <v>0.115359414734523</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.315786283391442</v>
+        <v>0.310083087760314</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.295592768652262</v>
+        <v>0.229121493851875</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.0721744704315153</v>
       </c>
       <c r="AG13" t="n">
         <v>0.00660389667410763</v>
@@ -1955,13 +1955,13 @@
         <v>0.107183838106001</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.333009716643881</v>
+        <v>0.327050705879479</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.298206777492565</v>
+        <v>0.227299978194327</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.0768658100626393</v>
       </c>
       <c r="AG14" t="n">
         <v>0.00729775238708778</v>
@@ -2059,13 +2059,13 @@
         <v>0.110553152053403</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.325842652319148</v>
+        <v>0.317948290496024</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.301746744068697</v>
+        <v>0.227587245335578</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.0820538605562442</v>
       </c>
       <c r="AG15" t="n">
         <v>0.00939023942108013</v>
@@ -2163,13 +2163,13 @@
         <v>0.105182638418157</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.34365567524154</v>
+        <v>0.336132874414082</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.291513006938382</v>
+        <v>0.21956096470416</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.0794748430616804</v>
       </c>
       <c r="AG16" t="n">
         <v>0.0100727632474629</v>
@@ -2267,13 +2267,13 @@
         <v>0.111154398149314</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3560691023239</v>
+        <v>0.349518787278984</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.286838943675072</v>
+        <v>0.217790463215117</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.0755987955048717</v>
       </c>
       <c r="AG17" t="n">
         <v>0.0067530095443577</v>
@@ -2326,7 +2326,7 @@
         <v>50065</v>
       </c>
       <c r="O18" t="n">
-        <v>5627035</v>
+        <v>5632593</v>
       </c>
       <c r="P18" t="n">
         <v>0.475687464362889</v>
@@ -2362,28 +2362,28 @@
         <v>0.008406074604101</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0425636236490443</v>
+        <v>0.0425216236997773</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.180925478515773</v>
+        <v>0.180746949051707</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.12415295088799</v>
+        <v>0.124030442107214</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.356940200300869</v>
+        <v>0.348245115526721</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.281983851175619</v>
+        <v>0.215958617993524</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.0750766121393823</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.00889722562592911</v>
+        <v>0.00888844622716394</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.00453666984477616</v>
+        <v>0.00453219325450996</v>
       </c>
     </row>
     <row r="19">
@@ -2475,13 +2475,13 @@
         <v>0.117673771763259</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.375080990969306</v>
+        <v>0.364542269530101</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.266516363117684</v>
+        <v>0.202451926934289</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.0746031576226008</v>
       </c>
       <c r="AG19" t="n">
         <v>0.00588145097305056</v>
@@ -2579,13 +2579,13 @@
         <v>0.112016625607581</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.385653681011214</v>
+        <v>0.374779711585394</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.253803081158796</v>
+        <v>0.193986859321032</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.0706901912635834</v>
       </c>
       <c r="AG20" t="n">
         <v>0.0071197428204181</v>
@@ -2683,13 +2683,13 @@
         <v>0.110620258091059</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.380618083655839</v>
+        <v>0.36924648085528</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.259531378095881</v>
+        <v>0.194888423737152</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.076014557159288</v>
       </c>
       <c r="AG21" t="n">
         <v>0.00235560852271929</v>
@@ -2787,13 +2787,13 @@
         <v>0.111111187937703</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.371550452426036</v>
+        <v>0.364255421835032</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.276278583669517</v>
+        <v>0.216940643736925</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.0666329705235959</v>
       </c>
       <c r="AG22" t="n">
         <v>0.00651646991184494</v>
@@ -2891,13 +2891,13 @@
         <v>0.1259886507256</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.371394398269462</v>
+        <v>0.361869335059661</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.255324348834352</v>
+        <v>0.193894135681907</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.0709552763622459</v>
       </c>
       <c r="AG23" t="n">
         <v>0.00728877834658399</v>
@@ -2995,13 +2995,13 @@
         <v>0.124211668647615</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.372511670370179</v>
+        <v>0.360914336899041</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.249016071520852</v>
+        <v>0.184889325271734</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>0.0757240797202556</v>
       </c>
       <c r="AG24" t="n">
         <v>0.00440752415895819</v>
@@ -3099,13 +3099,13 @@
         <v>0.109240362949797</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.377712064140467</v>
+        <v>0.362848072937732</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.26047014038552</v>
+        <v>0.198439786063971</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.0768943455242834</v>
       </c>
       <c r="AG25" t="n">
         <v>0.0083197730850837</v>
@@ -3203,13 +3203,13 @@
         <v>0.112603618477183</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.366054795239411</v>
+        <v>0.357701350013471</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.261500221140785</v>
+        <v>0.202452459018643</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.0674012073480821</v>
       </c>
       <c r="AG26" t="n">
         <v>0.00583900847983589</v>
@@ -3307,13 +3307,13 @@
         <v>0.129621498880138</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.386103925441678</v>
+        <v>0.376836650219978</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.239061367912703</v>
+        <v>0.18512304712789</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>0.0632055960065126</v>
       </c>
       <c r="AG27" t="n">
         <v>0.00724036546360654</v>
@@ -3411,13 +3411,13 @@
         <v>0.12635487071371</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.3656392316543</v>
+        <v>0.352676326105978</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.262644426531076</v>
+        <v>0.203189096270575</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.072418235808823</v>
       </c>
       <c r="AG28" t="n">
         <v>0.00568508298712304</v>
@@ -3515,13 +3515,13 @@
         <v>0.11415883043981</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.380960578472018</v>
+        <v>0.367314631867451</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.261222676678188</v>
+        <v>0.191429166465311</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.0834394568174443</v>
       </c>
       <c r="AG29" t="n">
         <v>0.00931937599563319</v>
@@ -3619,13 +3619,13 @@
         <v>0.121858710165672</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.406123780469698</v>
+        <v>0.391490532553621</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.239224732406657</v>
+        <v>0.185513132624237</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.0683448476984973</v>
       </c>
       <c r="AG30" t="n">
         <v>0.00578141341328421</v>
@@ -3678,7 +3678,7 @@
         <v>55575</v>
       </c>
       <c r="O31" t="n">
-        <v>2142615</v>
+        <v>5677398</v>
       </c>
       <c r="P31" t="n">
         <v>0.476827222160939</v>
@@ -3714,25 +3714,25 @@
         <v>0.00901575969394923</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.11611325413105</v>
+        <v>0.043820426188194</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.478642686623588</v>
+        <v>0.180636798758868</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.0499623124079688</v>
+        <v>0.123933534340908</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.227213008403283</v>
+        <v>0.381528827114111</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.102130807447908</v>
+        <v>0.190989780882017</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.0693018174875181</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.0259379309862014</v>
+        <v>0.00978881522838455</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>44479</v>
       </c>
       <c r="O32" t="n">
-        <v>2249729</v>
+        <v>5861433</v>
       </c>
       <c r="P32" t="n">
         <v>0.489535573567227</v>
@@ -3818,25 +3818,25 @@
         <v>0.00703072343471207</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.129829415009541</v>
+        <v>0.0498309884289388</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.469164063760569</v>
+        <v>0.180074053563352</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.0524645412847503</v>
+        <v>0.118463863700225</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.22944763569301</v>
+        <v>0.374473784823609</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0993235185215642</v>
+        <v>0.193974579253913</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.0755943128583061</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.0197708257305658</v>
+        <v>0.00758841737165639</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>27786</v>
       </c>
       <c r="O33" t="n">
-        <v>2273937</v>
+        <v>5896913</v>
       </c>
       <c r="P33" t="n">
         <v>0.490072690643733</v>
@@ -3922,25 +3922,25 @@
         <v>0.00436627218944209</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.111425690333549</v>
+        <v>0.0429673966700882</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.485988398095462</v>
+        <v>0.187404324940863</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0569246201631795</v>
+        <v>0.120527808363461</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.222934056660321</v>
+        <v>0.381243711752234</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.110507898855597</v>
+        <v>0.186147226523437</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.0769975748327981</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0122193358918915</v>
+        <v>0.00471195691711918</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>25992</v>
       </c>
       <c r="O34" t="n">
-        <v>2223462</v>
+        <v>5843028</v>
       </c>
       <c r="P34" t="n">
         <v>0.484707736644883</v>
@@ -4026,25 +4026,25 @@
         <v>0.00412042509876608</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.101117536526372</v>
+        <v>0.0384785080612313</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.47938665018786</v>
+        <v>0.182422196162675</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0657789519227223</v>
+        <v>0.137423780957408</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.241447346525374</v>
+        <v>0.376077780219434</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.100579636620729</v>
+        <v>0.186419952120715</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>0.0747294040008023</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.0116898782169428</v>
+        <v>0.00444837847773449</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>14220</v>
       </c>
       <c r="O35" t="n">
-        <v>1299583</v>
+        <v>5627703</v>
       </c>
       <c r="P35" t="n">
         <v>0.471139056183655</v>
@@ -4130,25 +4130,25 @@
         <v>0.00232034651813403</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.113170147655056</v>
+        <v>0.0261339306640738</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.875887880958738</v>
+        <v>0.202265293673103</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>0.118259794448996</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>0.403061071275439</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>0.174222769040939</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>0.0735303551022504</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0109419713862062</v>
+        <v>0.00252678579519921</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>36203</v>
       </c>
       <c r="O36" t="n">
-        <v>1394838</v>
+        <v>5736783</v>
       </c>
       <c r="P36" t="n">
         <v>0.477700551647133</v>
@@ -4234,25 +4234,25 @@
         <v>0.00583033895619169</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.161753551308467</v>
+        <v>0.0393286620741973</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.812291463238025</v>
+        <v>0.197500062317156</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>0.123298545543731</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>0.370515321914739</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>0.182066499639258</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>0.080980228814651</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.0259549854535079</v>
+        <v>0.0063106796962688</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>23636</v>
       </c>
       <c r="O37" t="n">
-        <v>1327136</v>
+        <v>5954799</v>
       </c>
       <c r="P37" t="n">
         <v>0.495021301281306</v>
@@ -4338,25 +4338,25 @@
         <v>0.00366496092062528</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.173850306223326</v>
+        <v>0.0387457242469477</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.8083399139199</v>
+        <v>0.180153351943533</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>0.135196166990691</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>0.360575562668026</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>0.203298381691809</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>0.078061576889497</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0178097798567743</v>
+        <v>0.00396923556949613</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>9141</v>
       </c>
       <c r="O38" t="n">
-        <v>1349041</v>
+        <v>5938742</v>
       </c>
       <c r="P38" t="n">
         <v>0.488299738640305</v>
@@ -4442,25 +4442,25 @@
         <v>0.00142967652493355</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.184715660976946</v>
+        <v>0.041959896557217</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.808508414495927</v>
+        <v>0.183660276873452</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>0.143349045976404</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>0.360913136149036</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>0.195568185989558</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>0.0730102435835738</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.00677592452712705</v>
+        <v>0.00153921487075882</v>
       </c>
       <c r="AH38" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>37326</v>
       </c>
       <c r="O39" t="n">
-        <v>1372376</v>
+        <v>5733782</v>
       </c>
       <c r="P39" t="n">
         <v>0.475578367521213</v>
@@ -4546,25 +4546,25 @@
         <v>0.00598519527649659</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.137503861915393</v>
+        <v>0.0329114361166853</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.83529805242878</v>
+        <v>0.199927900991004</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>0.127816509242939</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.398665836964154</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.165873763599662</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.0682947136811271</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.0271980856558261</v>
+        <v>0.006509839404428</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>21875</v>
       </c>
       <c r="O40" t="n">
-        <v>1456462</v>
+        <v>5875878</v>
       </c>
       <c r="P40" t="n">
         <v>0.483833615565244</v>
@@ -4650,25 +4650,25 @@
         <v>0.00343642071843579</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.147255472508037</v>
+        <v>0.0365004174695254</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.837725254761195</v>
+        <v>0.207648116587853</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>0.123281150493594</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>0.3684800807641</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>0.182311137161119</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.0780562496362246</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.0150192727307681</v>
+        <v>0.00372284788758378</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>11080</v>
       </c>
       <c r="O41" t="n">
-        <v>1409523</v>
+        <v>5815407</v>
       </c>
       <c r="P41" t="n">
         <v>0.47840726482084</v>
@@ -4754,25 +4754,25 @@
         <v>0.0017534050952876</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.163494316871736</v>
+        <v>0.0396273210112379</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.828644867802796</v>
+        <v>0.200844756007619</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>0.126294341909345</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>0.363149475178607</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>0.196290302639179</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>0.0718885195825503</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.00786081532546826</v>
+        <v>0.001905283671461</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>19679</v>
       </c>
       <c r="O42" t="n">
-        <v>1417131</v>
+        <v>5866431</v>
       </c>
       <c r="P42" t="n">
         <v>0.471950890669437</v>
@@ -4858,25 +4858,25 @@
         <v>0.00312213482374193</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.130965309487973</v>
+        <v>0.0316367822275588</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.855148183195484</v>
+        <v>0.20657483229582</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>0.124729839999823</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>0.374273387004808</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>0.187408835116274</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>0.0720218136035351</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.0138865073165431</v>
+        <v>0.00335450975218152</v>
       </c>
       <c r="AH42" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>26613</v>
       </c>
       <c r="O43" t="n">
-        <v>1349375</v>
+        <v>5746779</v>
       </c>
       <c r="P43" t="n">
         <v>0.461738096575277</v>
@@ -4962,25 +4962,25 @@
         <v>0.00429363126688985</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.139882538212135</v>
+        <v>0.0328451816226098</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.840394997684113</v>
+        <v>0.197329321346793</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>0.146949969713469</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>0.37516772438961</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>0.177647687513301</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>0.0654291734552521</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0197224641037517</v>
+        <v>0.00463094195896519</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>15976</v>
       </c>
       <c r="O44" t="n">
-        <v>1360553</v>
+        <v>5653562</v>
       </c>
       <c r="P44" t="n">
         <v>0.453897045497722</v>
@@ -5066,25 +5066,25 @@
         <v>0.00261465677474493</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.126239110126544</v>
+        <v>0.0303799622255845</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.8620186056699</v>
+        <v>0.207448330804544</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>0.138478007316449</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>0.373505057519489</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>0.172438544054173</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>0.0749242689829881</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.0117422842035555</v>
+        <v>0.0028258290967712</v>
       </c>
       <c r="AH44" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>27134</v>
       </c>
       <c r="O45" t="n">
-        <v>1371196</v>
+        <v>5667716</v>
       </c>
       <c r="P45" t="n">
         <v>0.453843614658287</v>
@@ -5170,25 +5170,25 @@
         <v>0.00439289947879043</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.125323440266745</v>
+        <v>0.0303196208137458</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.854887995589252</v>
+        <v>0.206823877554909</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>0.130335394363444</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>0.372330053234848</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>0.180772819245001</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>0.0746307683730095</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.0197885641440028</v>
+        <v>0.00478746641504267</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>30613</v>
       </c>
       <c r="O46" t="n">
-        <v>1423177</v>
+        <v>5844765</v>
       </c>
       <c r="P46" t="n">
         <v>0.464429958755123</v>
@@ -5274,25 +5274,25 @@
         <v>0.00484188546464813</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.125378642291156</v>
+        <v>0.0305292000619358</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.853111032570088</v>
+        <v>0.207729138810542</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>0.127166618332816</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>0.373145199165407</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>0.190232626974737</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>0.0659595381508068</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.0215103251387565</v>
+        <v>0.00523767850375507</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>17581</v>
       </c>
       <c r="O47" t="n">
-        <v>1348913</v>
+        <v>5671062</v>
       </c>
       <c r="P47" t="n">
         <v>0.452518967862013</v>
@@ -5378,25 +5378,25 @@
         <v>0.00286169489296275</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.118840132758747</v>
+        <v>0.0282671922825037</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.868126409931552</v>
+        <v>0.206491658881529</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>0.144757013765676</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>0.372072109245147</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>0.175685964992095</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>0.0696259360239758</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.0130334573097005</v>
+        <v>0.00310012480907456</v>
       </c>
       <c r="AH47" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>13256</v>
       </c>
       <c r="O48" t="n">
-        <v>1407041</v>
+        <v>5768407</v>
       </c>
       <c r="P48" t="n">
         <v>0.456067958813314</v>
@@ -5482,25 +5482,25 @@
         <v>0.00213177886300088</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.127698482133783</v>
+        <v>0.0311484609182396</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.862880328291784</v>
+        <v>0.210475439753124</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>0.138696697372429</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>0.364023897758948</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>0.176915221134708</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>0.0764422482671559</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.00942118957443315</v>
+        <v>0.00229803479539499</v>
       </c>
       <c r="AH48" t="n">
         <v>0</v>
@@ -6057,10 +6057,18 @@
       <c r="J54" t="n">
         <v>1648647</v>
       </c>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="K54" t="n">
+        <v>236428</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1467651</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5260097</v>
+      </c>
+      <c r="N54" t="n">
+        <v>40992</v>
+      </c>
       <c r="O54" t="n">
         <v>6525618</v>
       </c>
@@ -6085,10 +6093,18 @@
       <c r="V54" t="n">
         <v>0.340703810438019</v>
       </c>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
+      <c r="W54" t="n">
+        <v>0.0337505110512696</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.209509750515619</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.750888058644703</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.00585167978840764</v>
+      </c>
       <c r="AA54" t="n">
         <v>0.0362307447355944</v>
       </c>
@@ -6145,10 +6161,18 @@
       <c r="J55" t="n">
         <v>1693090</v>
       </c>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="K55" t="n">
+        <v>203684</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1431692</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5362799</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16308</v>
+      </c>
       <c r="O55" t="n">
         <v>6583468</v>
       </c>
@@ -6173,10 +6197,18 @@
       <c r="V55" t="n">
         <v>0.339491852027118</v>
       </c>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
+      <c r="W55" t="n">
+        <v>0.0290376354180344</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.204105135047016</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.764532325475734</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.00232490405921577</v>
+      </c>
       <c r="AA55" t="n">
         <v>0.0309387088993218</v>
       </c>
